--- a/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC20.xlsx
+++ b/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC20.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="8955" tabRatio="500"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="157">
   <si>
     <t>Fecha:</t>
   </si>
@@ -517,41 +522,38 @@
     <t>Fotografía</t>
   </si>
   <si>
-    <t>CN_06_07_CO_REC20_IMG1</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG2</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG3</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG4</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG5</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG6</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG7</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG8</t>
-  </si>
-  <si>
-    <t>CN_06_07_CO_REC20_IMG9</t>
+    <t>IMG02</t>
+  </si>
+  <si>
+    <t>IMG03</t>
+  </si>
+  <si>
+    <t>IMG04</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,11 +571,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -595,16 +599,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1685,7 +1692,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,6 +1705,396 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2021,15 +2418,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2047,7 +2444,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2059,7 +2456,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2076,7 +2473,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2093,7 +2490,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2114,7 +2511,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2136,7 +2533,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2149,7 +2546,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
         <v>40</v>
@@ -2167,7 +2564,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2187,7 +2584,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
@@ -2222,9 +2619,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B10" s="27">
         <v>55582372</v>
@@ -2239,7 +2636,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG1.png</v>
+        <v>CN_06_07_CO_REC20_IMG01.png</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2256,15 +2653,15 @@
       <c r="J10" s="14"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="27">
         <v>142937020</v>
       </c>
       <c r="C11" s="27" t="str">
-        <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C11:C72" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M10B</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -2272,15 +2669,15 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG2.png</v>
+        <f t="shared" ref="F11:F72" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_06_07_CO_REC20_IMG02.png</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>273 x 51 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H72" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I11" s="14" t="str">
@@ -2290,9 +2687,9 @@
       <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="27">
         <v>17668504</v>
@@ -2307,7 +2704,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG3.png</v>
+        <v>CN_06_07_CO_REC20_IMG03.png</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2324,9 +2721,9 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="27">
         <v>251277730</v>
@@ -2341,7 +2738,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG4.png</v>
+        <v>CN_06_07_CO_REC20_IMG04.png</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2358,9 +2755,9 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="27">
         <v>215535847</v>
@@ -2375,7 +2772,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG5.png</v>
+        <v>CN_06_07_CO_REC20_IMG05.png</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2392,9 +2789,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="27">
         <v>115105876</v>
@@ -2409,7 +2806,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG6.png</v>
+        <v>CN_06_07_CO_REC20_IMG06.png</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2426,9 +2823,9 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="27">
         <v>111902291</v>
@@ -2443,7 +2840,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG7.png</v>
+        <v>CN_06_07_CO_REC20_IMG07.png</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2460,9 +2857,9 @@
       <c r="J16" s="28"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="27">
         <v>180900839</v>
@@ -2477,7 +2874,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG8.png</v>
+        <v>CN_06_07_CO_REC20_IMG08.png</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2494,9 +2891,9 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="27">
         <v>74025427</v>
@@ -2511,7 +2908,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_07_CO_REC20_CN_06_07_CO_REC20_IMG9.png</v>
+        <v>CN_06_07_CO_REC20_IMG09.png</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2528,9 +2925,9 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(#REF!,3),IF(MID(#REF!,4,2)+1&lt;10,CONCATENATE("0",MID(#REF!,4,2)+1),MID(#REF!,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B19" s="13"/>
@@ -2556,12 +2953,12 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
-        <f t="shared" ref="A20:A83" si="3">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
+        <f t="shared" ref="A20:A81" si="3">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B20" s="13"/>
@@ -2587,10 +2984,10 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1">
+      <c r="J20" s="14"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2618,10 +3015,10 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2650,9 +3047,9 @@
         <v/>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2680,10 +3077,10 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2712,9 +3109,9 @@
         <v/>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2742,10 +3139,10 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2773,10 +3170,10 @@
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="14"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2807,7 +3204,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2838,7 +3235,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2869,7 +3266,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2900,7 +3297,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2931,7 +3328,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2962,7 +3359,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2990,10 +3387,10 @@
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3021,10 +3418,10 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3052,10 +3449,10 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3083,10 +3480,10 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3114,10 +3511,10 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3145,10 +3542,10 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3179,7 +3576,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3210,7 +3607,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3241,7 +3638,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3272,7 +3669,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3303,7 +3700,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3334,7 +3731,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3365,7 +3762,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3396,7 +3793,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3427,7 +3824,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3458,7 +3855,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3489,7 +3886,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3520,7 +3917,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3551,7 +3948,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3582,7 +3979,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3613,7 +4010,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3644,7 +4041,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3675,7 +4072,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3706,7 +4103,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3737,7 +4134,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3768,7 +4165,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3799,7 +4196,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3830,7 +4227,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3861,7 +4258,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3892,7 +4289,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3923,7 +4320,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3954,7 +4351,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3985,7 +4382,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4016,7 +4413,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4047,7 +4444,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4078,7 +4475,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4109,7 +4506,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4140,7 +4537,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4171,7 +4568,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4202,20 +4599,20 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C73:C106" si="4">IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F73:F106" si="5">IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE($C$7,"_",$A73,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I73="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -4223,7 +4620,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H73:H106" si="6">IF(AND(I73&lt;&gt;"",I73&lt;&gt;0),IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE($C$7,"_",$A73,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4233,20 +4630,20 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4254,7 +4651,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4264,20 +4661,20 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="27" t="str">
-        <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4285,7 +4682,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4295,7 +4692,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4326,7 +4723,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4357,7 +4754,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4388,7 +4785,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4419,7 +4816,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4450,7 +4847,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4481,9 +4878,9 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A82:A106" si="7">IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),CONCATENATE(LEFT(A81,3),IF(MID(A81,4,2)+1&lt;10,CONCATENATE("0",MID(A81,4,2)+1),MID(A81,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B82" s="13"/>
@@ -4512,9 +4909,9 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B83" s="13"/>
@@ -4543,9 +4940,9 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
-        <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B84" s="13"/>
@@ -4574,7 +4971,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4605,7 +5002,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4636,7 +5033,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4667,7 +5064,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4698,7 +5095,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4729,7 +5126,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4760,7 +5157,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4791,7 +5188,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4822,7 +5219,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4853,7 +5250,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4884,7 +5281,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4915,7 +5312,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4946,7 +5343,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4977,7 +5374,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5008,7 +5405,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5039,7 +5436,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5070,7 +5467,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5101,7 +5498,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5132,7 +5529,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5163,7 +5560,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5194,7 +5591,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5225,7 +5622,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5255,68 +5652,6 @@
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
-      <c r="A107" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G107" s="14" t="str">
-        <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H107" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I107" s="14" t="str">
-        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
-      <c r="A108" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G108" s="14" t="str">
-        <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H108" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I108" s="14" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5355,12 +5690,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -5377,6 +5706,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E106">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D106">
+      <formula1>"Ilustración,Fotografía"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -5389,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5397,7 +5732,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="31" customWidth="1"/>
     <col min="2" max="2" width="11" style="31"/>
@@ -5408,7 +5743,7 @@
     <col min="12" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>38</v>
       </c>
@@ -5418,7 +5753,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
@@ -5430,7 +5765,7 @@
       <c r="E2" s="96"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
@@ -5454,7 +5789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -5482,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>45</v>
       </c>
@@ -5509,7 +5844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -5531,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
@@ -5558,7 +5893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>53</v>
       </c>
@@ -5577,7 +5912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
@@ -5596,7 +5931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>36</v>
       </c>
@@ -5615,7 +5950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
@@ -5626,7 +5961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="31" t="s">
         <v>37</v>
       </c>
@@ -5637,7 +5972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>41</v>
       </c>
@@ -5656,7 +5991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5673,7 +6008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
@@ -5691,7 +6026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -5715,7 +6050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>44</v>
       </c>
@@ -5736,7 +6071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +6092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>10</v>
       </c>
@@ -5776,7 +6111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
@@ -5798,7 +6133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="31" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5815,122 +6150,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="31">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="31">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="31">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="31">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="31">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="31">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="31">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="31">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="31">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="31">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="31">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="31" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5950,12 +6285,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5963,7 +6459,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="31" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="31" customWidth="1"/>
@@ -5979,7 +6475,7 @@
     <col min="12" max="16384" width="10.875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
@@ -6007,7 +6503,7 @@
       <c r="I1" s="106"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
@@ -6025,7 +6521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1">
+    <row r="3" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
@@ -6049,7 +6545,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1">
+    <row r="4" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>57</v>
       </c>
@@ -6077,7 +6573,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1">
+    <row r="5" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>77</v>
       </c>
@@ -6105,7 +6601,7 @@
       </c>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1">
+    <row r="6" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>58</v>
       </c>
@@ -6137,7 +6633,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>80</v>
       </c>
@@ -6165,7 +6661,7 @@
       </c>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>82</v>
       </c>
@@ -6193,7 +6689,7 @@
       </c>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1">
+    <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>84</v>
       </c>
@@ -6221,7 +6717,7 @@
       </c>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1">
+    <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6247,7 +6743,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>89</v>
       </c>
@@ -6275,7 +6771,7 @@
       </c>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1">
+    <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>91</v>
       </c>
@@ -6303,7 +6799,7 @@
       </c>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>93</v>
       </c>
@@ -6330,7 +6826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
@@ -6354,7 +6850,7 @@
       </c>
       <c r="J14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>99</v>
       </c>
@@ -6381,7 +6877,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>103</v>
       </c>
@@ -6410,7 +6906,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>106</v>
       </c>
@@ -6439,12 +6935,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>113</v>
       </c>
@@ -6457,7 +6953,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>114</v>
       </c>
@@ -6470,7 +6966,7 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>115</v>
       </c>
@@ -6483,7 +6979,7 @@
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
         <v>116</v>
       </c>
@@ -6496,7 +6992,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
@@ -6509,7 +7005,7 @@
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>118</v>
       </c>
